--- a/OpenButton&FileSelection_TestScript.xlsx
+++ b/OpenButton&FileSelection_TestScript.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Step</t>
   </si>
@@ -139,6 +139,9 @@
   </si>
   <si>
     <t>6 februari 2018</t>
+  </si>
+  <si>
+    <t>Loading a URL takes more time because the file has to be downloaded first (time depends on internet speed).</t>
   </si>
 </sst>
 </file>
@@ -753,21 +756,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -806,6 +794,21 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1147,8 +1150,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1163,16 +1166,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47"/>
-      <c r="B1" s="48"/>
-      <c r="C1" s="49" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="44" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="H1" s="51"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
@@ -1182,11 +1185,11 @@
       <c r="C2" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="54" t="s">
+      <c r="D2" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="55"/>
-      <c r="F2" s="56"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="51"/>
       <c r="G2" s="5"/>
       <c r="H2" s="6"/>
     </row>
@@ -1195,13 +1198,13 @@
       <c r="B3" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="61"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="56"/>
       <c r="H3" s="6"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
@@ -1209,13 +1212,13 @@
       <c r="B4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="G4" s="61"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="56"/>
       <c r="H4" s="6"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -1223,13 +1226,13 @@
       <c r="B5" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="54" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="60"/>
-      <c r="E5" s="60"/>
-      <c r="F5" s="60"/>
-      <c r="G5" s="61"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="56"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:8" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
@@ -1237,13 +1240,13 @@
       <c r="B6" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="57" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="44"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="59"/>
       <c r="H6" s="13"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1301,10 +1304,10 @@
       <c r="F9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="G9" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="H9" s="58"/>
+      <c r="H9" s="53"/>
     </row>
     <row r="10" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A10" s="32">
@@ -1321,8 +1324,8 @@
       </c>
       <c r="E10" s="34"/>
       <c r="F10" s="34"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="53"/>
+      <c r="G10" s="47"/>
+      <c r="H10" s="48"/>
     </row>
     <row r="11" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A11" s="32">
@@ -1429,7 +1432,9 @@
       </c>
       <c r="E16" s="34"/>
       <c r="F16" s="34"/>
-      <c r="G16" s="40"/>
+      <c r="G16" s="40" t="s">
+        <v>39</v>
+      </c>
       <c r="H16" s="41"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -1597,24 +1602,11 @@
       <c r="D30" s="38"/>
       <c r="E30" s="38"/>
       <c r="F30" s="38"/>
-      <c r="G30" s="45"/>
-      <c r="H30" s="46"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C4:G4"/>
-    <mergeCell ref="C5:G5"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="C6:G6"/>
     <mergeCell ref="G30:H30"/>
@@ -1631,6 +1623,19 @@
     <mergeCell ref="G27:H27"/>
     <mergeCell ref="G19:H19"/>
     <mergeCell ref="G20:H20"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C4:G4"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G25:H25"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
